--- a/data/stat probs/john collins stat probs - condition.xlsx
+++ b/data/stat probs/john collins stat probs - condition.xlsx
@@ -18,7 +18,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="away 2023 full" sheetId="9" state="visible" r:id="rId9"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="phi 2023 regular" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="phi 2023 full" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="226 before 2023 regular" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="228 before 2023 regular" sheetId="12" state="visible" r:id="rId12"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 regular" sheetId="13" state="visible" r:id="rId13"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 postseason" sheetId="14" state="visible" r:id="rId14"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 full" sheetId="15" state="visible" r:id="rId15"/>
@@ -33,11 +33,11 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="chi 2023 full" sheetId="24" state="visible" r:id="rId24"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 before 2023 regular" sheetId="25" state="visible" r:id="rId25"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 before 2023 full" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="dal 2023 regular" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="dal 2023 full" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 regular" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 postseason" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 full" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 regular" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 postseason" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 full" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="dal 2023 regular" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="dal 2023 full" sheetId="31" state="visible" r:id="rId31"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bkn 2023 regular" sheetId="32" state="visible" r:id="rId32"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bkn 2023 full" sheetId="33" state="visible" r:id="rId33"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 after 2023 regular" sheetId="34" state="visible" r:id="rId34"/>
@@ -599,28 +599,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -1529,28 +1529,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -2235,16 +2235,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -2557,28 +2557,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -3423,28 +3423,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -4289,28 +4289,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -5155,28 +5155,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -6021,16 +6021,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -6039,10 +6039,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -6631,16 +6631,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -6649,10 +6649,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -7241,22 +7241,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -7723,22 +7723,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -8205,28 +8205,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -8623,28 +8623,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -9329,28 +9329,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -9747,16 +9747,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -9765,10 +9765,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -10453,28 +10453,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -10871,16 +10871,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -10889,10 +10889,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -11577,28 +11577,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -12411,28 +12411,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -13213,28 +13213,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3">
@@ -14047,28 +14047,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -14881,28 +14881,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -15715,28 +15715,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
@@ -16613,28 +16613,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -17415,28 +17415,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3">
@@ -18217,28 +18217,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3">
@@ -19115,28 +19115,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
@@ -19949,28 +19949,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
@@ -20783,28 +20783,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -21233,28 +21233,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -21683,28 +21683,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -22613,28 +22613,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -23480,7 +23480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23543,28 +23543,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -23587,16 +23587,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I3" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
@@ -23619,16 +23619,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="H4" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="I4" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
@@ -23651,16 +23651,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I5" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6">
@@ -23689,10 +23689,10 @@
         <v>100</v>
       </c>
       <c r="I6" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
@@ -23709,10 +23709,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -23741,10 +23741,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="F8" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -23805,10 +23805,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="F10" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -23837,10 +23837,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="F11" t="n">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23863,16 +23863,16 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E12" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="F12" t="n">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -23895,10 +23895,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23927,10 +23927,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23959,10 +23959,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -23991,10 +23991,10 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -24023,10 +24023,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -24055,10 +24055,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -24087,10 +24087,10 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -24119,10 +24119,10 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -24151,10 +24151,10 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D21" t="n">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -24172,6 +24172,230 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>17</v>
+      </c>
+      <c r="D22" t="n">
+        <v>83</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>100</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>100</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>17</v>
+      </c>
+      <c r="D23" t="n">
+        <v>83</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>100</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>100</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>17</v>
+      </c>
+      <c r="D24" t="n">
+        <v>83</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>100</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>100</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>17</v>
+      </c>
+      <c r="D25" t="n">
+        <v>83</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>100</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>100</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>17</v>
+      </c>
+      <c r="D26" t="n">
+        <v>83</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>100</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>100</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>17</v>
+      </c>
+      <c r="D27" t="n">
+        <v>83</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>100</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>100</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>17</v>
+      </c>
+      <c r="D28" t="n">
+        <v>83</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>100</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>100</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
         <v>100</v>
       </c>
     </row>
@@ -24186,7 +24410,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24249,28 +24473,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -24325,16 +24549,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="H4" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="I4" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
@@ -24351,22 +24575,22 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G5" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I5" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6">
@@ -24383,10 +24607,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -24395,10 +24619,10 @@
         <v>100</v>
       </c>
       <c r="I6" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="J6" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7">
@@ -24415,10 +24639,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -24441,16 +24665,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E8" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="F8" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -24473,16 +24697,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E9" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -24505,16 +24729,16 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E10" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -24537,16 +24761,16 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E11" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -24569,16 +24793,16 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E12" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -24601,10 +24825,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -24633,10 +24857,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -24665,10 +24889,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -24697,10 +24921,10 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -24729,10 +24953,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -24761,10 +24985,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -24793,10 +25017,10 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -24825,10 +25049,10 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -24857,10 +25081,10 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D21" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -24878,6 +25102,102 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>33</v>
+      </c>
+      <c r="D22" t="n">
+        <v>67</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>100</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>100</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>33</v>
+      </c>
+      <c r="D23" t="n">
+        <v>67</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>100</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>100</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>33</v>
+      </c>
+      <c r="D24" t="n">
+        <v>67</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>100</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>100</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
         <v>100</v>
       </c>
     </row>
@@ -24892,7 +25212,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24955,28 +25275,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3">
@@ -24999,16 +25319,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="H3" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I3" t="n">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="J3" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
@@ -25031,16 +25351,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H4" t="n">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I4" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="J4" t="n">
-        <v>71</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5">
@@ -25057,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -25069,10 +25389,10 @@
         <v>100</v>
       </c>
       <c r="I5" t="n">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="J5" t="n">
-        <v>86</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6">
@@ -25089,10 +25409,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -25101,10 +25421,10 @@
         <v>100</v>
       </c>
       <c r="I6" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J6" t="n">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
@@ -25121,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="F7" t="n">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -25147,16 +25467,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E8" t="n">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="F8" t="n">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -25179,16 +25499,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E9" t="n">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="F9" t="n">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -25211,16 +25531,16 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E10" t="n">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="F10" t="n">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -25243,16 +25563,16 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E11" t="n">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="F11" t="n">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -25275,16 +25595,16 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D12" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E12" t="n">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="F12" t="n">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -25307,16 +25627,16 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="D13" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="E13" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -25339,16 +25659,16 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="D14" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="E14" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -25371,16 +25691,16 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D15" t="n">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E15" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -25403,16 +25723,16 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D16" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E16" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -25435,10 +25755,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D17" t="n">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -25467,10 +25787,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D18" t="n">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -25499,10 +25819,10 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D19" t="n">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -25531,10 +25851,10 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D20" t="n">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -25563,10 +25883,10 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D21" t="n">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -25595,10 +25915,10 @@
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D22" t="n">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -25627,10 +25947,10 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D23" t="n">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -25659,10 +25979,10 @@
         <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D24" t="n">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -25691,10 +26011,10 @@
         <v>23</v>
       </c>
       <c r="C25" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D25" t="n">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -25712,6 +26032,102 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>11</v>
+      </c>
+      <c r="D26" t="n">
+        <v>89</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>100</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>100</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>11</v>
+      </c>
+      <c r="D27" t="n">
+        <v>89</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>100</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>100</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>11</v>
+      </c>
+      <c r="D28" t="n">
+        <v>89</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>100</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>100</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
         <v>100</v>
       </c>
     </row>
@@ -25789,28 +26205,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3">
@@ -26656,7 +27072,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26719,28 +27135,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -26795,16 +27211,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H4" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -26827,16 +27243,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H5" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -26865,10 +27281,10 @@
         <v>100</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J6" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7">
@@ -26900,6 +27316,454 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>100</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F8" t="n">
+        <v>50</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>100</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>50</v>
+      </c>
+      <c r="F9" t="n">
+        <v>50</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>100</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F10" t="n">
+        <v>50</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>100</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>50</v>
+      </c>
+      <c r="F11" t="n">
+        <v>50</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>100</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>50</v>
+      </c>
+      <c r="F12" t="n">
+        <v>50</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>100</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>100</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>100</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>100</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>100</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>100</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>100</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>100</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>100</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>100</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>100</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>100</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>100</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>100</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>100</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>100</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>100</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>100</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>100</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>100</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>100</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>100</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>50</v>
+      </c>
+      <c r="D21" t="n">
+        <v>50</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>100</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>100</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
         <v>100</v>
       </c>
     </row>
@@ -26914,7 +27778,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26977,28 +27841,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -27021,16 +27885,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="H3" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="J3" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27053,16 +27917,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="H4" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="I4" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="J4" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27085,16 +27949,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H5" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I5" t="n">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="J5" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27123,10 +27987,10 @@
         <v>100</v>
       </c>
       <c r="I6" t="n">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="J6" t="n">
-        <v>88</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7">
@@ -27143,10 +28007,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="F7" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27169,16 +28033,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="D8" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="F8" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27201,16 +28065,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="D9" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F9" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -27233,16 +28097,16 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="D10" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F10" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -27265,16 +28129,16 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="D11" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F11" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -27297,10 +28161,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="D12" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>50</v>
@@ -27329,16 +28193,16 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="D13" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -27361,16 +28225,16 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="D14" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -27393,16 +28257,16 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D15" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -27425,16 +28289,16 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="D16" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -27457,10 +28321,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="D17" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -27489,10 +28353,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="D18" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -27521,10 +28385,10 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="D19" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -27553,10 +28417,10 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="D20" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -27585,10 +28449,10 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D21" t="n">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -27606,134 +28470,6 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>20</v>
-      </c>
-      <c r="C22" t="n">
-        <v>12</v>
-      </c>
-      <c r="D22" t="n">
-        <v>88</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>100</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>100</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>21</v>
-      </c>
-      <c r="C23" t="n">
-        <v>12</v>
-      </c>
-      <c r="D23" t="n">
-        <v>88</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>100</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>100</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>22</v>
-      </c>
-      <c r="C24" t="n">
-        <v>12</v>
-      </c>
-      <c r="D24" t="n">
-        <v>88</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>100</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>100</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>23</v>
-      </c>
-      <c r="C25" t="n">
-        <v>12</v>
-      </c>
-      <c r="D25" t="n">
-        <v>88</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>100</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>100</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
         <v>100</v>
       </c>
     </row>
@@ -27811,28 +28547,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -28581,28 +29317,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -29351,28 +30087,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3">
@@ -30249,28 +30985,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -30603,28 +31339,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -31501,28 +32237,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -32111,28 +32847,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -32721,28 +33457,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -33427,28 +34163,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
@@ -34293,28 +35029,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -34775,28 +35511,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
@@ -35481,22 +36217,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -35899,22 +36635,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -36317,28 +37053,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -37247,28 +37983,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -38177,28 +38913,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -38787,28 +39523,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -39397,28 +40133,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -40103,28 +40839,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -40809,28 +41545,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -41419,28 +42155,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -42061,28 +42797,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -42703,28 +43439,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -43601,28 +44337,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -44499,16 +45235,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -44517,10 +45253,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -45429,16 +46165,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -45447,10 +46183,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -46359,28 +47095,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -47001,28 +47737,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -47419,28 +48155,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -48061,22 +48797,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -48543,28 +49279,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
@@ -49409,28 +50145,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3">
@@ -50211,28 +50947,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3">
@@ -51013,28 +51749,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -51847,28 +52583,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -52265,28 +53001,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
@@ -53099,22 +53835,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -53709,22 +54445,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -54319,16 +55055,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -54337,10 +55073,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -54801,16 +55537,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -54819,10 +55555,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -55283,28 +56019,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -55925,28 +56661,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -56855,28 +57591,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -57497,16 +58233,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -57851,16 +58587,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -58205,16 +58941,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -58223,10 +58959,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -58815,16 +59551,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -58833,10 +59569,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -59425,28 +60161,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -60003,28 +60739,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -60581,22 +61317,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -60871,22 +61607,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -61161,28 +61897,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -61739,28 +62475,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -62541,28 +63277,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -63119,16 +63855,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -63137,10 +63873,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -63729,16 +64465,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -63747,10 +64483,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -64339,28 +65075,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -65045,28 +65781,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -65751,28 +66487,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -66201,28 +66937,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -66651,28 +67387,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -67133,28 +67869,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -67615,28 +68351,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -68225,28 +68961,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3">
@@ -69155,28 +69891,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -69765,22 +70501,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -70375,22 +71111,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -70985,28 +71721,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -71787,28 +72523,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -72589,28 +73325,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -73423,28 +74159,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -74257,22 +74993,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -74739,22 +75475,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -75221,16 +75957,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
